--- a/Projetos /melhores_açoes.xlsx
+++ b/Projetos /melhores_açoes.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R$ 28,00</t>
+          <t>R$ 27,91</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>11,60</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R$ 13,82</t>
+          <t>R$ 13,81</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,12 +522,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R$ 46,57</t>
+          <t>R$ 46,69</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$ 13,65</t>
+          <t>R$ 13,70</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10,93</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$ 13,55</t>
+          <t>R$ 13,77</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$ 14,87</t>
+          <t>R$ 14,98</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$ 12,97</t>
+          <t>R$ 12,89</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$ 24,59</t>
+          <t>R$ 23,50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$ 25,01</t>
+          <t>R$ 25,25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12,84</t>
+          <t>12,72</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$ 24,42</t>
+          <t>R$ 24,26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>13,56</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$ 12,31</t>
+          <t>R$ 12,06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Projetos /melhores_açoes.xlsx
+++ b/Projetos /melhores_açoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R$ 27,91</t>
+          <t>R$ 29,06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11,60</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1,30</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R$ 13,81</t>
+          <t>R$ 13,59</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R$ 46,69</t>
+          <t>R$ 49,34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,17 +549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$ 13,70</t>
+          <t>R$ 16,30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10,89</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$ 13,77</t>
+          <t>R$ 16,08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$ 14,98</t>
+          <t>R$ 16,90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>9,60</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,76 +625,76 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CMIG4</t>
+          <t>CIEL3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$ 12,89</t>
+          <t>R$ 3,63</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18,48</t>
+          <t>17,91</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GEPA3</t>
+          <t>CSMG3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$ 23,50</t>
+          <t>R$ 16,14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23,81</t>
+          <t>16,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEPA4</t>
+          <t>GEPA3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$ 25,25</t>
+          <t>R$ 25,00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,52 +706,79 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GGBR4</t>
+          <t>GEPA4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$ 24,26</t>
+          <t>R$ 25,30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>12,04</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>23,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>POMO3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R$ 4,13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8,93</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>ROMI3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>R$ 12,06</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8,31</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R$ 11,35</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8,49</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>14,09</t>
         </is>
